--- a/Data_Feed_File.xlsx
+++ b/Data_Feed_File.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGABRANI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imranjuma/Desktop/covasim-1.7.6/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EC0C78-B3C2-CB4E-895B-C9C09CCE0259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="465" windowWidth="15960" windowHeight="13575"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -398,19 +407,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A335" sqref="A335:XFD335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -421,21 +430,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43852</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43853</v>
       </c>
@@ -446,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43854</v>
       </c>
@@ -457,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43855</v>
       </c>
@@ -468,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43856</v>
       </c>
@@ -479,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43857</v>
       </c>
@@ -490,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43858</v>
       </c>
@@ -501,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43859</v>
       </c>
@@ -512,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43860</v>
       </c>
@@ -523,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43861</v>
       </c>
@@ -534,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43862</v>
       </c>
@@ -545,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43863</v>
       </c>
@@ -556,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43864</v>
       </c>
@@ -567,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43865</v>
       </c>
@@ -578,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43866</v>
       </c>
@@ -589,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43867</v>
       </c>
@@ -600,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43868</v>
       </c>
@@ -611,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43869</v>
       </c>
@@ -622,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43870</v>
       </c>
@@ -633,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43871</v>
       </c>
@@ -644,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43872</v>
       </c>
@@ -655,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43873</v>
       </c>
@@ -666,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43874</v>
       </c>
@@ -677,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43875</v>
       </c>
@@ -688,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43876</v>
       </c>
@@ -699,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43877</v>
       </c>
@@ -710,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43878</v>
       </c>
@@ -721,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43879</v>
       </c>
@@ -732,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43880</v>
       </c>
@@ -743,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43881</v>
       </c>
@@ -754,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43882</v>
       </c>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43883</v>
       </c>
@@ -776,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43884</v>
       </c>
@@ -787,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43885</v>
       </c>
@@ -798,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43886</v>
       </c>
@@ -809,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43887</v>
       </c>
@@ -820,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43888</v>
       </c>
@@ -831,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43889</v>
       </c>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43890</v>
       </c>
@@ -853,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43891</v>
       </c>
@@ -864,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43892</v>
       </c>
@@ -875,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43893</v>
       </c>
@@ -886,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43894</v>
       </c>
@@ -897,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43895</v>
       </c>
@@ -908,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43896</v>
       </c>
@@ -919,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43897</v>
       </c>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43898</v>
       </c>
@@ -941,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43899</v>
       </c>
@@ -952,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43900</v>
       </c>
@@ -963,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43901</v>
       </c>
@@ -974,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43902</v>
       </c>
@@ -985,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43903</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43904</v>
       </c>
@@ -1007,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43905</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43906</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43907</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43908</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43909</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43910</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43911</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43912</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43913</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43914</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43915</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>43916</v>
       </c>
@@ -1139,7 +1148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>43917</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>43918</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43919</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43920</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43921</v>
       </c>
@@ -1194,7 +1203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43922</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43923</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43924</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43925</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43926</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43927</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43928</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43929</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43930</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43931</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43932</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43933</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43934</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43935</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43936</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43937</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43938</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43939</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43940</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43941</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43942</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43943</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43944</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43945</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43946</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43947</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43948</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43949</v>
       </c>
@@ -1502,7 +1511,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43950</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43951</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43952</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43953</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43954</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43955</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43956</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>4190</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43957</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>43958</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>43959</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>43960</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>43961</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>43962</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>43963</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>43964</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>5425</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>43965</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>43966</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>5679</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>43967</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>43968</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>5903</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>43969</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>5960</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>43970</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>43971</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43972</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43973</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>6360</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43974</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>6466</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43975</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>6534</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43976</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>6655</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43977</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>6753</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43978</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>6876</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43979</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>6982</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43980</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>7063</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43981</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>7159</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43982</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>7374</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43983</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>7404</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43984</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>7478</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43985</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>7579</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43986</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>7717</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43987</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>7778</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43988</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43989</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>7877</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43990</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>7910</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43991</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>7970</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43992</v>
       </c>
@@ -1975,7 +1984,7 @@
         <v>8038</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43993</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>8071</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43994</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>8125</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43995</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>8183</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43996</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>8218</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43997</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>8228</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43998</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>8271</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43999</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>8312</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44000</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>8361</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44001</v>
       </c>
@@ -2074,7 +2083,7 @@
         <v>8408</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44002</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>8466</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44003</v>
       </c>
@@ -2096,7 +2105,7 @@
         <v>8482</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44004</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>8494</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44005</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>8512</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44006</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>8544</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44007</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>8567</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44008</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>8571</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44009</v>
       </c>
@@ -2162,7 +2171,7 @@
         <v>8576</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44010</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>8582</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44011</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>8628</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44012</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>8650</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44013</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>8678</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44014</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44015</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>8722</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44016</v>
       </c>
@@ -2239,7 +2248,7 @@
         <v>8732</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44017</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>8739</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44018</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>8748</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44019</v>
       </c>
@@ -2272,7 +2281,7 @@
         <v>8765</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44020</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>8786</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44021</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>8797</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44022</v>
       </c>
@@ -2305,7 +2314,7 @@
         <v>8811</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44023</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>8818</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44024</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>8829</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44025</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>8836</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44026</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>8845</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44027</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>8857</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44028</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>8875</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44029</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>8884</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44030</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>8892</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44031</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>8896</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44032</v>
       </c>
@@ -2415,7 +2424,7 @@
         <v>8902</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44033</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>8908</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44034</v>
       </c>
@@ -2437,7 +2446,7 @@
         <v>8913</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44035</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>8919</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44036</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>8923</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44037</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>8929</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44038</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>8934</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44039</v>
       </c>
@@ -2492,7 +2501,7 @@
         <v>8945</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44040</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>8957</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44041</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>8962</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44042</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>8974</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44043</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>8980</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44044</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>8986</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44045</v>
       </c>
@@ -2559,7 +2568,7 @@
       </c>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44046</v>
       </c>
@@ -2571,7 +2580,7 @@
       </c>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44047</v>
       </c>
@@ -2583,7 +2592,7 @@
       </c>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44048</v>
       </c>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44049</v>
       </c>
@@ -2607,7 +2616,7 @@
       </c>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44050</v>
       </c>
@@ -2619,7 +2628,7 @@
       </c>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44051</v>
       </c>
@@ -2631,7 +2640,7 @@
       </c>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44052</v>
       </c>
@@ -2643,7 +2652,7 @@
       </c>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44053</v>
       </c>
@@ -2655,7 +2664,7 @@
       </c>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44054</v>
       </c>
@@ -2667,7 +2676,7 @@
       </c>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44055</v>
       </c>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44056</v>
       </c>
@@ -2691,7 +2700,7 @@
       </c>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44057</v>
       </c>
@@ -2703,7 +2712,7 @@
       </c>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44058</v>
       </c>
@@ -2715,7 +2724,7 @@
       </c>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44059</v>
       </c>
@@ -2727,7 +2736,7 @@
       </c>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44060</v>
       </c>
@@ -2739,7 +2748,7 @@
       </c>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44061</v>
       </c>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44062</v>
       </c>
@@ -2763,7 +2772,7 @@
       </c>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44063</v>
       </c>
@@ -2775,7 +2784,7 @@
       </c>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44064</v>
       </c>
@@ -2787,7 +2796,7 @@
       </c>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44065</v>
       </c>
@@ -2799,7 +2808,7 @@
       </c>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44066</v>
       </c>
@@ -2811,7 +2820,7 @@
       </c>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44067</v>
       </c>
@@ -2823,7 +2832,7 @@
       </c>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44068</v>
       </c>
@@ -2835,7 +2844,7 @@
       </c>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44069</v>
       </c>
@@ -2847,7 +2856,7 @@
       </c>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44070</v>
       </c>
@@ -2859,7 +2868,7 @@
       </c>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44071</v>
       </c>
@@ -2871,7 +2880,7 @@
       </c>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44072</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>9161</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44073</v>
       </c>
@@ -2893,7 +2902,7 @@
         <v>9164</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44074</v>
       </c>
@@ -2904,7 +2913,7 @@
         <v>9173</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44075</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>9179</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44076</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>9182</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44077</v>
       </c>
@@ -2937,7 +2946,7 @@
         <v>9189</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44078</v>
       </c>
@@ -2948,7 +2957,7 @@
         <v>9190</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44079</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>9192</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44080</v>
       </c>
@@ -2970,7 +2979,7 @@
         <v>9194</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44081</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>9196</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44082</v>
       </c>
@@ -2992,7 +3001,7 @@
         <v>9203</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44083</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>9204</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44084</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>9213</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44085</v>
       </c>
@@ -3025,7 +3034,7 @@
         <v>9214</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44086</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>9220</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44087</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>9220</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44088</v>
       </c>
@@ -3058,7 +3067,7 @@
         <v>9229</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44089</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>9239</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44090</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>9244</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44091</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44092</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>9256</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44093</v>
       </c>
@@ -3113,7 +3122,7 @@
         <v>9262</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44094</v>
       </c>
@@ -3124,7 +3133,7 @@
         <v>9267</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44095</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>9279</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44096</v>
       </c>
@@ -3146,7 +3155,7 @@
         <v>9286</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44097</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>9294</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44098</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>9297</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44099</v>
       </c>
@@ -3179,7 +3188,7 @@
         <v>9306</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44100</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>9313</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44101</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>9318</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44102</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>9328</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44103</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>9340</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44104</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>9346</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44105</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>9368</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44106</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>9466</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44107</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>9488</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44108</v>
       </c>
@@ -3278,7 +3287,7 @@
         <v>9533</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44109</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>9560</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44110</v>
       </c>
@@ -3300,10 +3309,788 @@
         <v>9582</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B262">
+        <v>175380</v>
+      </c>
+      <c r="C262">
+        <v>9593</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B263">
+        <v>177730</v>
+      </c>
+      <c r="C263">
+        <v>9609</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B264">
+        <v>180625</v>
+      </c>
+      <c r="C264">
+        <v>9638</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B265">
+        <v>182767</v>
+      </c>
+      <c r="C265">
+        <v>9661</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B266">
+        <v>184403</v>
+      </c>
+      <c r="C266">
+        <v>9666</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B267">
+        <v>185378</v>
+      </c>
+      <c r="C267">
+        <v>9680</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B268">
+        <v>189489</v>
+      </c>
+      <c r="C268">
+        <v>9707</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B269">
+        <v>192064</v>
+      </c>
+      <c r="C269">
+        <v>9719</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B270">
+        <v>194362</v>
+      </c>
+      <c r="C270">
+        <v>9756</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B271">
+        <v>196928</v>
+      </c>
+      <c r="C271">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B272">
+        <v>197067</v>
+      </c>
+      <c r="C272">
+        <v>9782</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B273">
+        <v>200804</v>
+      </c>
+      <c r="C273">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B274">
+        <v>204111</v>
+      </c>
+      <c r="C274">
+        <v>9832</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B275">
+        <v>206349</v>
+      </c>
+      <c r="C275">
+        <v>9849</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B276">
+        <v>209036</v>
+      </c>
+      <c r="C276">
+        <v>9883</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B277">
+        <v>211617</v>
+      </c>
+      <c r="C277">
+        <v>9916</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B278">
+        <v>214519</v>
+      </c>
+      <c r="C278">
+        <v>9940</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B279">
+        <v>216051</v>
+      </c>
+      <c r="C279">
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B280">
+        <v>218874</v>
+      </c>
+      <c r="C280">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B281">
+        <v>222973</v>
+      </c>
+      <c r="C281">
+        <v>10026</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B282">
+        <v>225703</v>
+      </c>
+      <c r="C282">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B283">
+        <v>228366</v>
+      </c>
+      <c r="C283">
+        <v>10084</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B284">
+        <v>231383</v>
+      </c>
+      <c r="C284">
+        <v>10127</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B285">
+        <v>234939</v>
+      </c>
+      <c r="C285">
+        <v>10163</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B286">
+        <v>237313</v>
+      </c>
+      <c r="C286">
+        <v>10187</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B287">
+        <v>239649</v>
+      </c>
+      <c r="C287">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B288">
+        <v>243178</v>
+      </c>
+      <c r="C288">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B289">
+        <v>247916</v>
+      </c>
+      <c r="C289">
+        <v>10334</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B290">
+        <v>250698</v>
+      </c>
+      <c r="C290">
+        <v>10385</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B291">
+        <v>253482</v>
+      </c>
+      <c r="C291">
+        <v>10432</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B292">
+        <v>258875</v>
+      </c>
+      <c r="C292">
+        <v>10493</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B293">
+        <v>263221</v>
+      </c>
+      <c r="C293">
+        <v>10547</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B294">
+        <v>267165</v>
+      </c>
+      <c r="C294">
+        <v>10575</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B295">
+        <v>272036</v>
+      </c>
+      <c r="C295">
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B296">
+        <v>276481</v>
+      </c>
+      <c r="C296">
+        <v>10693</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B297">
+        <v>280465</v>
+      </c>
+      <c r="C297">
+        <v>10748</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B298">
+        <v>285939</v>
+      </c>
+      <c r="C298">
+        <v>10828</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B299">
+        <v>290709</v>
+      </c>
+      <c r="C299">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B300">
+        <v>295139</v>
+      </c>
+      <c r="C300">
+        <v>10947</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B301">
+        <v>299440</v>
+      </c>
+      <c r="C301">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B302">
+        <v>305473</v>
+      </c>
+      <c r="C302">
+        <v>11075</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B303">
+        <v>309935</v>
+      </c>
+      <c r="C303">
+        <v>11136</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B304">
+        <v>314453</v>
+      </c>
+      <c r="C304">
+        <v>11238</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B305">
+        <v>319247</v>
+      </c>
+      <c r="C305">
+        <v>11314</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B306">
+        <v>324234</v>
+      </c>
+      <c r="C306">
+        <v>11385</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B307">
+        <v>329191</v>
+      </c>
+      <c r="C307">
+        <v>11455</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B308">
+        <v>333936</v>
+      </c>
+      <c r="C308">
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B309">
+        <v>340731</v>
+      </c>
+      <c r="C309">
+        <v>11570</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B310">
+        <v>346013</v>
+      </c>
+      <c r="C310">
+        <v>11676</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B311">
+        <v>350971</v>
+      </c>
+      <c r="C311">
+        <v>11733</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B312">
+        <v>356650</v>
+      </c>
+      <c r="C312">
+        <v>11818</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B313">
+        <v>362604</v>
+      </c>
+      <c r="C313">
+        <v>11916</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B314">
+        <v>368279</v>
+      </c>
+      <c r="C314">
+        <v>11993</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B315">
+        <v>373662</v>
+      </c>
+      <c r="C315">
+        <v>12046</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B316">
+        <v>381557</v>
+      </c>
+      <c r="C316">
+        <v>12147</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B317">
+        <v>387052</v>
+      </c>
+      <c r="C317">
+        <v>12229</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B318">
+        <v>393506</v>
+      </c>
+      <c r="C318">
+        <v>12342</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B319">
+        <v>399770</v>
+      </c>
+      <c r="C319">
+        <v>12423</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B320">
+        <v>406189</v>
+      </c>
+      <c r="C320">
+        <v>12519</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B321">
+        <v>412543</v>
+      </c>
+      <c r="C321">
+        <v>12607</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B322">
+        <v>418848</v>
+      </c>
+      <c r="C322">
+        <v>12688</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B323">
+        <v>426572</v>
+      </c>
+      <c r="C323">
+        <v>12796</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B324">
+        <v>432743</v>
+      </c>
+      <c r="C324">
+        <v>12887</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B325">
+        <v>439142</v>
+      </c>
+      <c r="C325">
+        <v>13009</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B326">
+        <v>445828</v>
+      </c>
+      <c r="C326">
+        <v>13130</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B327">
+        <v>452543</v>
+      </c>
+      <c r="C327">
+        <v>13267</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B328">
+        <v>458527</v>
+      </c>
+      <c r="C328">
+        <v>13367</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B329">
+        <v>464443</v>
+      </c>
+      <c r="C329">
+        <v>13451</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B330">
+        <v>472820</v>
+      </c>
+      <c r="C330">
+        <v>13570</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B331">
+        <v>479064</v>
+      </c>
+      <c r="C331">
+        <v>13685</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B332">
+        <v>485576</v>
+      </c>
+      <c r="C332">
+        <v>13815</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1048576" s="1">
         <v>44045</v>
       </c>

--- a/Data_Feed_File.xlsx
+++ b/Data_Feed_File.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imranjuma/Desktop/covasim-1.7.6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imranjuma/Desktop/covasim_modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EC0C78-B3C2-CB4E-895B-C9C09CCE0259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB3E98-0049-7A4C-8E83-CAEC46289311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335:XFD335"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,10 +437,10 @@
       <c r="A3" s="3">
         <v>43852</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
@@ -4088,6 +4088,259 @@
       </c>
       <c r="C332">
         <v>13815</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B333">
+        <v>492582</v>
+      </c>
+      <c r="C333">
+        <v>13940</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B334">
+        <v>499282</v>
+      </c>
+      <c r="C334">
+        <v>14055</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B335">
+        <v>505741</v>
+      </c>
+      <c r="C335">
+        <v>14171</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B336">
+        <v>511748</v>
+      </c>
+      <c r="C336">
+        <v>14245</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B337">
+        <v>519325</v>
+      </c>
+      <c r="C337">
+        <v>14346</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B338">
+        <v>525585</v>
+      </c>
+      <c r="C338">
+        <v>14444</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B339">
+        <v>532506</v>
+      </c>
+      <c r="C339">
+        <v>14616</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B340">
+        <v>539190</v>
+      </c>
+      <c r="C340">
+        <v>14775</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B341">
+        <v>540939</v>
+      </c>
+      <c r="C341">
+        <v>14794</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B342">
+        <v>544053</v>
+      </c>
+      <c r="C342">
+        <v>14834</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B343">
+        <v>554153</v>
+      </c>
+      <c r="C343">
+        <v>15021</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B344">
+        <v>560618</v>
+      </c>
+      <c r="C344">
+        <v>15169</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B345">
+        <v>568807</v>
+      </c>
+      <c r="C345">
+        <v>15387</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B346">
+        <v>577266</v>
+      </c>
+      <c r="C346">
+        <v>15498</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B347">
+        <v>584409</v>
+      </c>
+      <c r="C347">
+        <v>15632</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B348">
+        <v>585400</v>
+      </c>
+      <c r="C348">
+        <v>15644</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B349">
+        <v>589935</v>
+      </c>
+      <c r="C349">
+        <v>15707</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B350">
+        <v>606076</v>
+      </c>
+      <c r="C350">
+        <v>15880</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B351">
+        <v>616134</v>
+      </c>
+      <c r="C351">
+        <v>16098</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B352">
+        <v>623384</v>
+      </c>
+      <c r="C352">
+        <v>16253</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B353">
+        <v>631466</v>
+      </c>
+      <c r="C353">
+        <v>16403</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B354">
+        <v>639693</v>
+      </c>
+      <c r="C354">
+        <v>16595</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B355">
+        <v>648930</v>
+      </c>
+      <c r="C355">
+        <v>16735</v>
       </c>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data_Feed_File.xlsx
+++ b/Data_Feed_File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imranjuma/Desktop/covasim-1.7.6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imranjuma/Desktop/covasim_modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EC0C78-B3C2-CB4E-895B-C9C09CCE0259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1A1BB-0C6B-834A-B0E6-7582BEE8660A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335:XFD335"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="C391" sqref="C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1046,7 @@
         <v>478</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>657</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1068,7 +1068,7 @@
         <v>800</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1079,7 +1079,7 @@
         <v>943</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
         <v>1469</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,7 +1112,7 @@
         <v>2088</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
         <v>2790</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>3251</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>4042</v>
       </c>
       <c r="C67">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>4682</v>
       </c>
       <c r="C68">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>5576</v>
       </c>
       <c r="C69">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
         <v>6280</v>
       </c>
       <c r="C70">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>7398</v>
       </c>
       <c r="C71">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>8527</v>
       </c>
       <c r="C72">
-        <v>101</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
         <v>9560</v>
       </c>
       <c r="C73">
-        <v>109</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>11284</v>
       </c>
       <c r="C74">
-        <v>139</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
         <v>12437</v>
       </c>
       <c r="C75">
-        <v>179</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>12978</v>
       </c>
       <c r="C76">
-        <v>218</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
         <v>15756</v>
       </c>
       <c r="C77">
-        <v>259</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
         <v>16563</v>
       </c>
       <c r="C78">
-        <v>339</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>17872</v>
       </c>
       <c r="C79">
-        <v>375</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>19141</v>
       </c>
       <c r="C80">
-        <v>407</v>
+        <v>648</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
         <v>20654</v>
       </c>
       <c r="C81">
-        <v>503</v>
+        <v>771</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>22059</v>
       </c>
       <c r="C82">
-        <v>557</v>
+        <v>867</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>23316</v>
       </c>
       <c r="C83">
-        <v>654</v>
+        <v>986</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,7 @@
         <v>24299</v>
       </c>
       <c r="C84">
-        <v>714</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1343,7 +1343,7 @@
         <v>25680</v>
       </c>
       <c r="C85">
-        <v>781</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>27035</v>
       </c>
       <c r="C86">
-        <v>901</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>28209</v>
       </c>
       <c r="C87">
-        <v>1008</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
         <v>30809</v>
       </c>
       <c r="C88">
-        <v>1259</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>32814</v>
       </c>
       <c r="C89">
-        <v>1356</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
         <v>34356</v>
       </c>
       <c r="C90">
-        <v>1401</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>35633</v>
       </c>
       <c r="C91">
-        <v>1565</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
         <v>37658</v>
       </c>
       <c r="C92">
-        <v>1727</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1431,7 +1431,7 @@
         <v>39402</v>
       </c>
       <c r="C93">
-        <v>1910</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>41663</v>
       </c>
       <c r="C94">
-        <v>2078</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>43299</v>
       </c>
       <c r="C95">
-        <v>2241</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1464,7 +1464,7 @@
         <v>44919</v>
       </c>
       <c r="C96">
-        <v>2402</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1475,7 +1475,7 @@
         <v>46371</v>
       </c>
       <c r="C97">
-        <v>2571</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>48033</v>
       </c>
       <c r="C98">
-        <v>2687</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>49616</v>
       </c>
       <c r="C99">
-        <v>2841</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1508,7 +1508,7 @@
         <v>51150</v>
       </c>
       <c r="C100">
-        <v>2983</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1519,7 +1519,7 @@
         <v>52865</v>
       </c>
       <c r="C101">
-        <v>3155</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1530,7 +1530,7 @@
         <v>54457</v>
       </c>
       <c r="C102">
-        <v>3310</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1541,7 +1541,7 @@
         <v>56343</v>
       </c>
       <c r="C103">
-        <v>3537</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
         <v>57926</v>
       </c>
       <c r="C104">
-        <v>3684</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
         <v>60504</v>
       </c>
       <c r="C105">
-        <v>3795</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1574,7 +1574,7 @@
         <v>61957</v>
       </c>
       <c r="C106">
-        <v>4003</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>63215</v>
       </c>
       <c r="C107">
-        <v>4190</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1596,7 +1596,7 @@
         <v>64694</v>
       </c>
       <c r="C108">
-        <v>4366</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>66201</v>
       </c>
       <c r="C109">
-        <v>4541</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>67674</v>
       </c>
       <c r="C110">
-        <v>4697</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>68918</v>
       </c>
       <c r="C111">
-        <v>4823</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1640,7 +1640,7 @@
         <v>70091</v>
       </c>
       <c r="C112">
-        <v>4991</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1651,7 +1651,7 @@
         <v>71264</v>
       </c>
       <c r="C113">
-        <v>5115</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>72419</v>
       </c>
       <c r="C114">
-        <v>5300</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
         <v>73568</v>
       </c>
       <c r="C115">
-        <v>5425</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1684,7 +1684,7 @@
         <v>74781</v>
       </c>
       <c r="C116">
-        <v>5592</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>75959</v>
       </c>
       <c r="C117">
-        <v>5679</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1706,7 +1706,7 @@
         <v>77206</v>
       </c>
       <c r="C118">
-        <v>5800</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1717,7 +1717,7 @@
         <v>78332</v>
       </c>
       <c r="C119">
-        <v>5903</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1728,7 +1728,7 @@
         <v>79411</v>
       </c>
       <c r="C120">
-        <v>5960</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>80493</v>
       </c>
       <c r="C121">
-        <v>6028</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
         <v>81575</v>
       </c>
       <c r="C122">
-        <v>6150</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>82742</v>
       </c>
       <c r="C123">
-        <v>6267</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1772,7 +1772,7 @@
         <v>83947</v>
       </c>
       <c r="C124">
-        <v>6360</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1783,7 +1783,7 @@
         <v>85151</v>
       </c>
       <c r="C125">
-        <v>6466</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>86106</v>
       </c>
       <c r="C126">
-        <v>6534</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>87119</v>
       </c>
       <c r="C127">
-        <v>6655</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1816,7 +1816,7 @@
         <v>88090</v>
       </c>
       <c r="C128">
-        <v>6753</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1827,7 +1827,7 @@
         <v>88989</v>
       </c>
       <c r="C129">
-        <v>6876</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1838,7 +1838,7 @@
         <v>89976</v>
       </c>
       <c r="C130">
-        <v>6982</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1849,7 +1849,7 @@
         <v>90909</v>
       </c>
       <c r="C131">
-        <v>7063</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1860,7 +1860,7 @@
         <v>91681</v>
       </c>
       <c r="C132">
-        <v>7159</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1871,7 +1871,7 @@
         <v>92479</v>
       </c>
       <c r="C133">
-        <v>7374</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>93288</v>
       </c>
       <c r="C134">
-        <v>7404</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
         <v>93960</v>
       </c>
       <c r="C135">
-        <v>7478</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1904,7 +1904,7 @@
         <v>94641</v>
       </c>
       <c r="C136">
-        <v>7579</v>
+        <v>8062</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>95269</v>
       </c>
       <c r="C137">
-        <v>7717</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
         <v>95947</v>
       </c>
       <c r="C138">
-        <v>7778</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
         <v>96475</v>
       </c>
       <c r="C139">
-        <v>7850</v>
+        <v>8228</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,7 +1948,7 @@
         <v>97178</v>
       </c>
       <c r="C140">
-        <v>7877</v>
+        <v>8269</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>97779</v>
       </c>
       <c r="C141">
-        <v>7910</v>
+        <v>8313</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,7 +1970,7 @@
         <v>98241</v>
       </c>
       <c r="C142">
-        <v>7970</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
         <v>98720</v>
       </c>
       <c r="C143">
-        <v>8038</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -1992,7 +1992,7 @@
         <v>99159</v>
       </c>
       <c r="C144">
-        <v>8071</v>
+        <v>8413</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2003,7 +2003,7 @@
         <v>99595</v>
       </c>
       <c r="C145">
-        <v>8125</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>100043</v>
       </c>
       <c r="C146">
-        <v>8183</v>
+        <v>8470</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2025,7 +2025,7 @@
         <v>100404</v>
       </c>
       <c r="C147">
-        <v>8218</v>
+        <v>8489</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
         <v>100763</v>
       </c>
       <c r="C148">
-        <v>8228</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
         <v>101087</v>
       </c>
       <c r="C149">
-        <v>8271</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
         <v>101491</v>
       </c>
       <c r="C150">
-        <v>8312</v>
+        <v>8542</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>101877</v>
       </c>
       <c r="C151">
-        <v>8361</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2080,7 +2080,7 @@
         <v>102314</v>
       </c>
       <c r="C152">
-        <v>8408</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,7 +2091,7 @@
         <v>102762</v>
       </c>
       <c r="C153">
-        <v>8466</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>103078</v>
       </c>
       <c r="C154">
-        <v>8482</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,7 +2113,7 @@
         <v>103418</v>
       </c>
       <c r="C155">
-        <v>8494</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
         <v>103767</v>
       </c>
       <c r="C156">
-        <v>8512</v>
+        <v>8670</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,7 +2135,7 @@
         <v>104087</v>
       </c>
       <c r="C157">
-        <v>8544</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>104463</v>
       </c>
       <c r="C158">
-        <v>8567</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
         <v>104629</v>
       </c>
       <c r="C159">
-        <v>8571</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2168,7 +2168,7 @@
         <v>104878</v>
       </c>
       <c r="C160">
-        <v>8576</v>
+        <v>8739</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2179,7 +2179,7 @@
         <v>105193</v>
       </c>
       <c r="C161">
-        <v>8582</v>
+        <v>8749</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>105830</v>
       </c>
       <c r="C162">
-        <v>8628</v>
+        <v>8768</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>106097</v>
       </c>
       <c r="C163">
-        <v>8650</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,7 +2212,7 @@
         <v>106288</v>
       </c>
       <c r="C164">
-        <v>8678</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>106643</v>
       </c>
       <c r="C165">
-        <v>8700</v>
+        <v>8806</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>106962</v>
       </c>
       <c r="C166">
-        <v>8722</v>
+        <v>8813</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>107185</v>
       </c>
       <c r="C167">
-        <v>8732</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
         <v>107394</v>
       </c>
       <c r="C168">
-        <v>8739</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,7 +2267,7 @@
         <v>107815</v>
       </c>
       <c r="C169">
-        <v>8748</v>
+        <v>8836</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,7 +2278,7 @@
         <v>108023</v>
       </c>
       <c r="C170">
-        <v>8765</v>
+        <v>8843</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,7 +2289,7 @@
         <v>108334</v>
       </c>
       <c r="C171">
-        <v>8786</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
         <v>108656</v>
       </c>
       <c r="C172">
-        <v>8797</v>
+        <v>8865</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,7 +2311,7 @@
         <v>108984</v>
       </c>
       <c r="C173">
-        <v>8811</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2322,7 +2322,7 @@
         <v>109150</v>
       </c>
       <c r="C174">
-        <v>8818</v>
+        <v>8882</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2333,7 +2333,7 @@
         <v>109348</v>
       </c>
       <c r="C175">
-        <v>8829</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,7 +2344,7 @@
         <v>109984</v>
       </c>
       <c r="C176">
-        <v>8836</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
         <v>110350</v>
       </c>
       <c r="C177">
-        <v>8845</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,7 +2366,7 @@
         <v>110693</v>
       </c>
       <c r="C178">
-        <v>8857</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>111144</v>
       </c>
       <c r="C179">
-        <v>8875</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,7 +2388,7 @@
         <v>111559</v>
       </c>
       <c r="C180">
-        <v>8884</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
         <v>111875</v>
       </c>
       <c r="C181">
-        <v>8892</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2410,7 +2410,7 @@
         <v>112168</v>
       </c>
       <c r="C182">
-        <v>8896</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2421,7 +2421,7 @@
         <v>112938</v>
       </c>
       <c r="C183">
-        <v>8902</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2432,7 +2432,7 @@
         <v>113473</v>
       </c>
       <c r="C184">
-        <v>8908</v>
+        <v>8954</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,7 +2443,7 @@
         <v>113790</v>
       </c>
       <c r="C185">
-        <v>8913</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>114398</v>
       </c>
       <c r="C186">
-        <v>8919</v>
+        <v>8966</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2465,7 +2465,7 @@
         <v>115115</v>
       </c>
       <c r="C187">
-        <v>8923</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2476,7 +2476,7 @@
         <v>115470</v>
       </c>
       <c r="C188">
-        <v>8929</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2487,7 +2487,7 @@
         <v>115789</v>
       </c>
       <c r="C189">
-        <v>8934</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,7 +2498,7 @@
         <v>116471</v>
       </c>
       <c r="C190">
-        <v>8945</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,7 +2509,7 @@
         <v>116871</v>
       </c>
       <c r="C191">
-        <v>8957</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,7 +2520,7 @@
         <v>117357</v>
       </c>
       <c r="C192">
-        <v>8962</v>
+        <v>9006</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>117677</v>
       </c>
       <c r="C193">
-        <v>8974</v>
+        <v>9019</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
         <v>118281</v>
       </c>
       <c r="C194">
-        <v>8980</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -2553,7 +2553,7 @@
         <v>118523</v>
       </c>
       <c r="C195">
-        <v>8986</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -2564,7 +2564,7 @@
         <v>118768</v>
       </c>
       <c r="C196">
-        <v>8990</v>
+        <v>9032</v>
       </c>
       <c r="E196" s="5"/>
     </row>
@@ -2576,7 +2576,7 @@
         <v>118973</v>
       </c>
       <c r="C197">
-        <v>8995</v>
+        <v>9035</v>
       </c>
       <c r="E197" s="5"/>
     </row>
@@ -2588,7 +2588,7 @@
         <v>119659</v>
       </c>
       <c r="C198">
-        <v>9005</v>
+        <v>9043</v>
       </c>
       <c r="E198" s="5"/>
     </row>
@@ -2600,7 +2600,7 @@
         <v>120033</v>
       </c>
       <c r="C199">
-        <v>9010</v>
+        <v>9049</v>
       </c>
       <c r="E199" s="5"/>
     </row>
@@ -2612,7 +2612,7 @@
         <v>120387</v>
       </c>
       <c r="C200">
-        <v>9013</v>
+        <v>9055</v>
       </c>
       <c r="E200" s="5"/>
     </row>
@@ -2624,7 +2624,7 @@
         <v>120903</v>
       </c>
       <c r="C201">
-        <v>9017</v>
+        <v>9060</v>
       </c>
       <c r="E201" s="5"/>
     </row>
@@ -2636,7 +2636,7 @@
         <v>121148</v>
       </c>
       <c r="C202">
-        <v>9024</v>
+        <v>9064</v>
       </c>
       <c r="E202" s="5"/>
     </row>
@@ -2648,7 +2648,7 @@
         <v>121367</v>
       </c>
       <c r="C203">
-        <v>9028</v>
+        <v>9067</v>
       </c>
       <c r="E203" s="5"/>
     </row>
@@ -2660,7 +2660,7 @@
         <v>122053</v>
       </c>
       <c r="C204">
-        <v>9034</v>
+        <v>9074</v>
       </c>
       <c r="E204" s="5"/>
     </row>
@@ -2672,7 +2672,7 @@
         <v>122389</v>
       </c>
       <c r="C205">
-        <v>9038</v>
+        <v>9080</v>
       </c>
       <c r="E205" s="5"/>
     </row>
@@ -2684,7 +2684,7 @@
         <v>122703</v>
       </c>
       <c r="C206">
-        <v>9052</v>
+        <v>9085</v>
       </c>
       <c r="E206" s="5"/>
     </row>
@@ -2696,7 +2696,7 @@
         <v>123180</v>
       </c>
       <c r="C207">
-        <v>9063</v>
+        <v>9091</v>
       </c>
       <c r="E207" s="5"/>
     </row>
@@ -2708,7 +2708,7 @@
         <v>123605</v>
       </c>
       <c r="C208">
-        <v>9068</v>
+        <v>9095</v>
       </c>
       <c r="E208" s="5"/>
     </row>
@@ -2720,7 +2720,7 @@
         <v>123825</v>
       </c>
       <c r="C209">
-        <v>9072</v>
+        <v>9101</v>
       </c>
       <c r="E209" s="5"/>
     </row>
@@ -2732,7 +2732,7 @@
         <v>124004</v>
       </c>
       <c r="C210">
-        <v>9074</v>
+        <v>9106</v>
       </c>
       <c r="E210" s="5"/>
     </row>
@@ -2744,7 +2744,7 @@
         <v>124218</v>
       </c>
       <c r="C211">
-        <v>9075</v>
+        <v>9108</v>
       </c>
       <c r="E211" s="5"/>
     </row>
@@ -2756,7 +2756,7 @@
         <v>125084</v>
       </c>
       <c r="C212">
-        <v>9090</v>
+        <v>9118</v>
       </c>
       <c r="E212" s="5"/>
     </row>
@@ -2768,7 +2768,7 @@
         <v>125408</v>
       </c>
       <c r="C213">
-        <v>9095</v>
+        <v>9124</v>
       </c>
       <c r="E213" s="5"/>
     </row>
@@ -2780,7 +2780,7 @@
         <v>125625</v>
       </c>
       <c r="C214">
-        <v>9097</v>
+        <v>9127</v>
       </c>
       <c r="E214" s="5"/>
     </row>
@@ -2792,7 +2792,7 @@
         <v>126319</v>
       </c>
       <c r="C215">
-        <v>9110</v>
+        <v>9141</v>
       </c>
       <c r="E215" s="5"/>
     </row>
@@ -2804,7 +2804,7 @@
         <v>126560</v>
       </c>
       <c r="C216">
-        <v>9117</v>
+        <v>9142</v>
       </c>
       <c r="E216" s="5"/>
     </row>
@@ -2816,7 +2816,7 @@
         <v>126817</v>
       </c>
       <c r="C217">
-        <v>9119</v>
+        <v>9146</v>
       </c>
       <c r="E217" s="5"/>
     </row>
@@ -2828,7 +2828,7 @@
         <v>127594</v>
       </c>
       <c r="C218">
-        <v>9129</v>
+        <v>9154</v>
       </c>
       <c r="E218" s="5"/>
     </row>
@@ -2840,7 +2840,7 @@
         <v>127903</v>
       </c>
       <c r="C219">
-        <v>9136</v>
+        <v>9159</v>
       </c>
       <c r="E219" s="5"/>
     </row>
@@ -2852,7 +2852,7 @@
         <v>128380</v>
       </c>
       <c r="C220">
-        <v>9141</v>
+        <v>9164</v>
       </c>
       <c r="E220" s="5"/>
     </row>
@@ -2864,7 +2864,7 @@
         <v>128836</v>
       </c>
       <c r="C221">
-        <v>9148</v>
+        <v>9168</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -2876,7 +2876,7 @@
         <v>129342</v>
       </c>
       <c r="C222">
-        <v>9155</v>
+        <v>9181</v>
       </c>
       <c r="E222" s="5"/>
     </row>
@@ -2888,7 +2888,7 @@
         <v>129639</v>
       </c>
       <c r="C223">
-        <v>9161</v>
+        <v>9184</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -2899,7 +2899,7 @@
         <v>129888</v>
       </c>
       <c r="C224">
-        <v>9164</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -2910,7 +2910,7 @@
         <v>130918</v>
       </c>
       <c r="C225">
-        <v>9173</v>
+        <v>9193</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -2921,7 +2921,7 @@
         <v>131422</v>
       </c>
       <c r="C226">
-        <v>9179</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -2932,7 +2932,7 @@
         <v>131941</v>
       </c>
       <c r="C227">
-        <v>9182</v>
+        <v>9199</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -2943,7 +2943,7 @@
         <v>132527</v>
       </c>
       <c r="C228">
-        <v>9189</v>
+        <v>9205</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -2954,7 +2954,7 @@
         <v>133141</v>
       </c>
       <c r="C229">
-        <v>9190</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -2965,7 +2965,7 @@
         <v>133511</v>
       </c>
       <c r="C230">
-        <v>9192</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -2976,7 +2976,7 @@
         <v>133890</v>
       </c>
       <c r="C231">
-        <v>9194</v>
+        <v>9209</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -2987,7 +2987,7 @@
         <v>134295</v>
       </c>
       <c r="C232">
-        <v>9196</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -2998,7 +2998,7 @@
         <v>135757</v>
       </c>
       <c r="C233">
-        <v>9203</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -3009,7 +3009,7 @@
         <v>136135</v>
       </c>
       <c r="C234">
-        <v>9204</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
         <v>136956</v>
       </c>
       <c r="C235">
-        <v>9213</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3031,7 +3031,7 @@
         <v>137676</v>
       </c>
       <c r="C236">
-        <v>9214</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -3042,7 +3042,7 @@
         <v>138164</v>
       </c>
       <c r="C237">
-        <v>9220</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -3053,7 +3053,7 @@
         <v>138640</v>
       </c>
       <c r="C238">
-        <v>9220</v>
+        <v>9236</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3064,7 +3064,7 @@
         <v>140098</v>
       </c>
       <c r="C239">
-        <v>9229</v>
+        <v>9249</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3075,7 +3075,7 @@
         <v>140900</v>
       </c>
       <c r="C240">
-        <v>9239</v>
+        <v>9257</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -3086,7 +3086,7 @@
         <v>141852</v>
       </c>
       <c r="C241">
-        <v>9244</v>
+        <v>9262</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3097,7 +3097,7 @@
         <v>142879</v>
       </c>
       <c r="C242">
-        <v>9249</v>
+        <v>9267</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3108,7 +3108,7 @@
         <v>144053</v>
       </c>
       <c r="C243">
-        <v>9256</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <v>144607</v>
       </c>
       <c r="C244">
-        <v>9262</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3130,7 +3130,7 @@
         <v>145750</v>
       </c>
       <c r="C245">
-        <v>9267</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3141,7 +3141,7 @@
         <v>147583</v>
       </c>
       <c r="C246">
-        <v>9279</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -3152,7 +3152,7 @@
         <v>148855</v>
       </c>
       <c r="C247">
-        <v>9286</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,7 +3163,7 @@
         <v>149939</v>
       </c>
       <c r="C248">
-        <v>9294</v>
+        <v>9317</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>151087</v>
       </c>
       <c r="C249">
-        <v>9297</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -3185,7 +3185,7 @@
         <v>152717</v>
       </c>
       <c r="C250">
-        <v>9306</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
         <v>153770</v>
       </c>
       <c r="C251">
-        <v>9313</v>
+        <v>9338</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -3207,7 +3207,7 @@
         <v>155428</v>
       </c>
       <c r="C252">
-        <v>9318</v>
+        <v>9343</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -3218,7 +3218,7 @@
         <v>157219</v>
       </c>
       <c r="C253">
-        <v>9328</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -3229,7 +3229,7 @@
         <v>158991</v>
       </c>
       <c r="C254">
-        <v>9340</v>
+        <v>9373</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -3240,7 +3240,7 @@
         <v>161107</v>
       </c>
       <c r="C255">
-        <v>9346</v>
+        <v>9391</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -3251,7 +3251,7 @@
         <v>162930</v>
       </c>
       <c r="C256">
-        <v>9368</v>
+        <v>9407</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -3262,7 +3262,7 @@
         <v>165054</v>
       </c>
       <c r="C257">
-        <v>9466</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -3273,7 +3273,7 @@
         <v>166360</v>
       </c>
       <c r="C258">
-        <v>9488</v>
+        <v>9526</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
         <v>168501</v>
       </c>
       <c r="C259">
-        <v>9533</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
         <v>171384</v>
       </c>
       <c r="C260">
-        <v>9560</v>
+        <v>9599</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -3306,7 +3306,7 @@
         <v>173756</v>
       </c>
       <c r="C261">
-        <v>9582</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -3317,7 +3317,7 @@
         <v>175380</v>
       </c>
       <c r="C262">
-        <v>9593</v>
+        <v>9636</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -3328,7 +3328,7 @@
         <v>177730</v>
       </c>
       <c r="C263">
-        <v>9609</v>
+        <v>9654</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -3339,7 +3339,7 @@
         <v>180625</v>
       </c>
       <c r="C264">
-        <v>9638</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -3350,7 +3350,7 @@
         <v>182767</v>
       </c>
       <c r="C265">
-        <v>9661</v>
+        <v>9694</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -3361,7 +3361,7 @@
         <v>184403</v>
       </c>
       <c r="C266">
-        <v>9666</v>
+        <v>9708</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -3372,7 +3372,7 @@
         <v>185378</v>
       </c>
       <c r="C267">
-        <v>9680</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -3383,7 +3383,7 @@
         <v>189489</v>
       </c>
       <c r="C268">
-        <v>9707</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -3394,7 +3394,7 @@
         <v>192064</v>
       </c>
       <c r="C269">
-        <v>9719</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -3405,7 +3405,7 @@
         <v>194362</v>
       </c>
       <c r="C270">
-        <v>9756</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -3416,7 +3416,7 @@
         <v>196928</v>
       </c>
       <c r="C271">
-        <v>9781</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -3427,7 +3427,7 @@
         <v>197067</v>
       </c>
       <c r="C272">
-        <v>9782</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>200804</v>
       </c>
       <c r="C273">
-        <v>9816</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -3449,7 +3449,7 @@
         <v>204111</v>
       </c>
       <c r="C274">
-        <v>9832</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -3460,7 +3460,7 @@
         <v>206349</v>
       </c>
       <c r="C275">
-        <v>9849</v>
+        <v>9909</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -3471,7 +3471,7 @@
         <v>209036</v>
       </c>
       <c r="C276">
-        <v>9883</v>
+        <v>9946</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -3482,7 +3482,7 @@
         <v>211617</v>
       </c>
       <c r="C277">
-        <v>9916</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -3493,7 +3493,7 @@
         <v>214519</v>
       </c>
       <c r="C278">
-        <v>9940</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -3504,7 +3504,7 @@
         <v>216051</v>
       </c>
       <c r="C279">
-        <v>9969</v>
+        <v>10026</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -3515,7 +3515,7 @@
         <v>218874</v>
       </c>
       <c r="C280">
-        <v>9995</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -3526,7 +3526,7 @@
         <v>222973</v>
       </c>
       <c r="C281">
-        <v>10026</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -3537,7 +3537,7 @@
         <v>225703</v>
       </c>
       <c r="C282">
-        <v>10052</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -3548,7 +3548,7 @@
         <v>228366</v>
       </c>
       <c r="C283">
-        <v>10084</v>
+        <v>10158</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -3559,7 +3559,7 @@
         <v>231383</v>
       </c>
       <c r="C284">
-        <v>10127</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -3570,7 +3570,7 @@
         <v>234939</v>
       </c>
       <c r="C285">
-        <v>10163</v>
+        <v>10237</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -3581,7 +3581,7 @@
         <v>237313</v>
       </c>
       <c r="C286">
-        <v>10187</v>
+        <v>10276</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
         <v>239649</v>
       </c>
       <c r="C287">
-        <v>10230</v>
+        <v>10313</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
         <v>243178</v>
       </c>
       <c r="C288">
-        <v>10262</v>
+        <v>10345</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
         <v>247916</v>
       </c>
       <c r="C289">
-        <v>10334</v>
+        <v>10403</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -3625,7 +3625,7 @@
         <v>250698</v>
       </c>
       <c r="C290">
-        <v>10385</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>253482</v>
       </c>
       <c r="C291">
-        <v>10432</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>258875</v>
       </c>
       <c r="C292">
-        <v>10493</v>
+        <v>10546</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -3658,7 +3658,7 @@
         <v>263221</v>
       </c>
       <c r="C293">
-        <v>10547</v>
+        <v>10593</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -3669,7 +3669,7 @@
         <v>267165</v>
       </c>
       <c r="C294">
-        <v>10575</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -3680,7 +3680,7 @@
         <v>272036</v>
       </c>
       <c r="C295">
-        <v>10620</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -3691,7 +3691,7 @@
         <v>276481</v>
       </c>
       <c r="C296">
-        <v>10693</v>
+        <v>10769</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -3702,7 +3702,7 @@
         <v>280465</v>
       </c>
       <c r="C297">
-        <v>10748</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
         <v>285939</v>
       </c>
       <c r="C298">
-        <v>10828</v>
+        <v>10905</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -3724,7 +3724,7 @@
         <v>290709</v>
       </c>
       <c r="C299">
-        <v>10885</v>
+        <v>10951</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>295139</v>
       </c>
       <c r="C300">
-        <v>10947</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -3746,7 +3746,7 @@
         <v>299440</v>
       </c>
       <c r="C301">
-        <v>11001</v>
+        <v>11078</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -3757,7 +3757,7 @@
         <v>305473</v>
       </c>
       <c r="C302">
-        <v>11075</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -3768,7 +3768,7 @@
         <v>309935</v>
       </c>
       <c r="C303">
-        <v>11136</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>314453</v>
       </c>
       <c r="C304">
-        <v>11238</v>
+        <v>11324</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -3790,7 +3790,7 @@
         <v>319247</v>
       </c>
       <c r="C305">
-        <v>11314</v>
+        <v>11394</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -3801,7 +3801,7 @@
         <v>324234</v>
       </c>
       <c r="C306">
-        <v>11385</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>329191</v>
       </c>
       <c r="C307">
-        <v>11455</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>333936</v>
       </c>
       <c r="C308">
-        <v>11502</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -3834,7 +3834,7 @@
         <v>340731</v>
       </c>
       <c r="C309">
-        <v>11570</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -3845,7 +3845,7 @@
         <v>346013</v>
       </c>
       <c r="C310">
-        <v>11676</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
         <v>350971</v>
       </c>
       <c r="C311">
-        <v>11733</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -3867,7 +3867,7 @@
         <v>356650</v>
       </c>
       <c r="C312">
-        <v>11818</v>
+        <v>11902</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -3878,7 +3878,7 @@
         <v>362604</v>
       </c>
       <c r="C313">
-        <v>11916</v>
+        <v>11988</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -3889,7 +3889,7 @@
         <v>368279</v>
       </c>
       <c r="C314">
-        <v>11993</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
         <v>373662</v>
       </c>
       <c r="C315">
-        <v>12046</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>381557</v>
       </c>
       <c r="C316">
-        <v>12147</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -3922,7 +3922,7 @@
         <v>387052</v>
       </c>
       <c r="C317">
-        <v>12229</v>
+        <v>12317</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -3933,7 +3933,7 @@
         <v>393506</v>
       </c>
       <c r="C318">
-        <v>12342</v>
+        <v>12423</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -3944,7 +3944,7 @@
         <v>399770</v>
       </c>
       <c r="C319">
-        <v>12423</v>
+        <v>12513</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
         <v>406189</v>
       </c>
       <c r="C320">
-        <v>12519</v>
+        <v>12616</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -3966,7 +3966,7 @@
         <v>412543</v>
       </c>
       <c r="C321">
-        <v>12607</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -3977,7 +3977,7 @@
         <v>418848</v>
       </c>
       <c r="C322">
-        <v>12688</v>
+        <v>12775</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -3988,7 +3988,7 @@
         <v>426572</v>
       </c>
       <c r="C323">
-        <v>12796</v>
+        <v>12896</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>432743</v>
       </c>
       <c r="C324">
-        <v>12887</v>
+        <v>12993</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
         <v>439142</v>
       </c>
       <c r="C325">
-        <v>13009</v>
+        <v>13109</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -4021,7 +4021,7 @@
         <v>445828</v>
       </c>
       <c r="C326">
-        <v>13130</v>
+        <v>13227</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -4032,7 +4032,7 @@
         <v>452543</v>
       </c>
       <c r="C327">
-        <v>13267</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -4043,7 +4043,7 @@
         <v>458527</v>
       </c>
       <c r="C328">
-        <v>13367</v>
+        <v>13453</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>464443</v>
       </c>
       <c r="C329">
-        <v>13451</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -4065,7 +4065,7 @@
         <v>472820</v>
       </c>
       <c r="C330">
-        <v>13570</v>
+        <v>13677</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>479064</v>
       </c>
       <c r="C331">
-        <v>13685</v>
+        <v>13793</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -4087,8 +4087,594 @@
         <v>485576</v>
       </c>
       <c r="C332">
-        <v>13815</v>
-      </c>
+        <v>13911</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B333">
+        <v>492582</v>
+      </c>
+      <c r="C333">
+        <v>14067</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B334">
+        <v>499282</v>
+      </c>
+      <c r="C334">
+        <v>14180</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B335">
+        <v>505741</v>
+      </c>
+      <c r="C335">
+        <v>14284</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B336">
+        <v>511748</v>
+      </c>
+      <c r="C336">
+        <v>14374</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B337">
+        <v>519325</v>
+      </c>
+      <c r="C337">
+        <v>14481</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B338">
+        <v>525585</v>
+      </c>
+      <c r="C338">
+        <v>14607</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B339">
+        <v>532506</v>
+      </c>
+      <c r="C339">
+        <v>14752</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B340">
+        <v>539190</v>
+      </c>
+      <c r="C340">
+        <v>14902</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B341">
+        <v>540939</v>
+      </c>
+      <c r="C341">
+        <v>14966</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B342">
+        <v>544053</v>
+      </c>
+      <c r="C342">
+        <v>15051</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B343">
+        <v>554153</v>
+      </c>
+      <c r="C343">
+        <v>15171</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B344">
+        <v>560618</v>
+      </c>
+      <c r="C344">
+        <v>15328</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B345">
+        <v>568807</v>
+      </c>
+      <c r="C345">
+        <v>15528</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B346">
+        <v>577266</v>
+      </c>
+      <c r="C346">
+        <v>15650</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B347">
+        <v>584409</v>
+      </c>
+      <c r="C347">
+        <v>15762</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B348">
+        <v>585400</v>
+      </c>
+      <c r="C348">
+        <v>15806</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B349">
+        <v>589935</v>
+      </c>
+      <c r="C349">
+        <v>15914</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B350">
+        <v>606076</v>
+      </c>
+      <c r="C350">
+        <v>16006</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B351">
+        <v>616134</v>
+      </c>
+      <c r="C351">
+        <v>16247</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B352">
+        <v>623384</v>
+      </c>
+      <c r="C352">
+        <v>16389</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B353">
+        <v>631466</v>
+      </c>
+      <c r="C353">
+        <v>16539</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B354">
+        <v>639693</v>
+      </c>
+      <c r="C354">
+        <v>16704</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B355">
+        <v>648930</v>
+      </c>
+      <c r="C355">
+        <v>16846</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B356">
+        <v>657323</v>
+      </c>
+      <c r="C356">
+        <v>16984</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B357">
+        <v>664606</v>
+      </c>
+      <c r="C357">
+        <v>17074</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B358">
+        <v>672931</v>
+      </c>
+      <c r="C358">
+        <v>17199</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B359">
+        <v>679072</v>
+      </c>
+      <c r="C359">
+        <v>17359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B360">
+        <v>686211</v>
+      </c>
+      <c r="C360">
+        <v>17539</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B361">
+        <v>693658</v>
+      </c>
+      <c r="C361">
+        <v>17686</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B362">
+        <v>700538</v>
+      </c>
+      <c r="C362">
+        <v>17856</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>44212</v>
+      </c>
+      <c r="B363">
+        <v>706897</v>
+      </c>
+      <c r="C363">
+        <v>17978</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>44213</v>
+      </c>
+      <c r="B364">
+        <v>713181</v>
+      </c>
+      <c r="C364">
+        <v>18106</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>44214</v>
+      </c>
+      <c r="B365">
+        <v>719601</v>
+      </c>
+      <c r="C365">
+        <v>18231</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B366">
+        <v>724629</v>
+      </c>
+      <c r="C366">
+        <v>18382</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B367">
+        <v>730330</v>
+      </c>
+      <c r="C367">
+        <v>18567</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B368">
+        <v>736441</v>
+      </c>
+      <c r="C368">
+        <v>18706</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B369">
+        <v>742268</v>
+      </c>
+      <c r="C369">
+        <v>18887</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44219</v>
+      </c>
+      <c r="B370">
+        <v>747362</v>
+      </c>
+      <c r="C370">
+        <v>18992</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B371">
+        <v>752041</v>
+      </c>
+      <c r="C371">
+        <v>19119</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44221</v>
+      </c>
+      <c r="B372">
+        <v>757658</v>
+      </c>
+      <c r="C372">
+        <v>19245</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44222</v>
+      </c>
+      <c r="B373">
+        <v>761699</v>
+      </c>
+      <c r="C373">
+        <v>19392</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B374">
+        <v>765871</v>
+      </c>
+      <c r="C374">
+        <v>19479</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44224</v>
+      </c>
+      <c r="B375">
+        <v>770433</v>
+      </c>
+      <c r="C375">
+        <v>19659</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44225</v>
+      </c>
+      <c r="B376">
+        <v>774932</v>
+      </c>
+      <c r="C376">
+        <v>19801</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44226</v>
+      </c>
+      <c r="B377">
+        <v>778782</v>
+      </c>
+      <c r="C377">
+        <v>19926</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B378">
+        <v>782477</v>
+      </c>
+      <c r="C378">
+        <v>20005</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B379">
+        <v>788197</v>
+      </c>
+      <c r="C379">
+        <v>20145</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B380">
+        <v>791145</v>
+      </c>
+      <c r="C380">
+        <v>20242</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B381">
+        <v>794412</v>
+      </c>
+      <c r="C381">
+        <v>20361</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B382">
+        <v>798394</v>
+      </c>
+      <c r="C382">
+        <v>20486</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B383">
+        <v>802530</v>
+      </c>
+      <c r="C383">
+        <v>20607</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B384">
+        <v>805794</v>
+      </c>
+      <c r="C384">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B385">
+        <v>809001</v>
+      </c>
+      <c r="C385">
+        <v>20760</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1048576" s="1">
